--- a/racm2cbo5_conv_table.xlsx
+++ b/racm2cbo5_conv_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilo/OneDrive - Universidad de los Andes/Estudio/Tesis_maestría/Code/Emissions_conversor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ca_moreno12_uniandes_edu_co/Documents/Estudio/Tesis_maestría/Code/Emissions_conversor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610ED60E-8E4F-DF4A-B92B-6EE07D65DFB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{610ED60E-8E4F-DF4A-B92B-6EE07D65DFB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1114A780-B11C-F04C-B853-20F4DC2EB3A3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1084,12 +1084,24 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1119,11 +1131,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1429,11 +1449,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="163" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="163" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98:G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="7" max="7" width="8.83203125" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -1445,13 +1469,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1483,13 +1507,13 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
@@ -1521,13 +1545,13 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
@@ -1565,6 +1589,7 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4"/>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1585,6 +1610,7 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5"/>
       <c r="K5" t="s">
         <v>20</v>
       </c>
@@ -1611,6 +1637,7 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6"/>
       <c r="K6" t="s">
         <v>21</v>
       </c>
@@ -1637,6 +1664,7 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7"/>
       <c r="K7" t="s">
         <v>22</v>
       </c>
@@ -1663,6 +1691,7 @@
       <c r="F8">
         <v>0</v>
       </c>
+      <c r="G8"/>
       <c r="K8" t="s">
         <v>23</v>
       </c>
@@ -1689,6 +1718,7 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="G9"/>
       <c r="I9" t="s">
         <v>25</v>
       </c>
@@ -1715,13 +1745,13 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H10" t="s">
@@ -1759,6 +1789,7 @@
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="G11"/>
       <c r="I11" t="s">
         <v>30</v>
       </c>
@@ -1791,6 +1822,7 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12"/>
       <c r="I12" t="s">
         <v>30</v>
       </c>
@@ -1823,6 +1855,7 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="G13"/>
       <c r="I13" t="s">
         <v>33</v>
       </c>
@@ -1855,6 +1888,7 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14"/>
       <c r="K14" t="s">
         <v>34</v>
       </c>
@@ -1881,6 +1915,7 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="G15"/>
       <c r="I15" t="s">
         <v>36</v>
       </c>
@@ -1907,6 +1942,7 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="G16"/>
       <c r="K16" t="s">
         <v>37</v>
       </c>
@@ -1933,6 +1969,7 @@
       <c r="F17">
         <v>0</v>
       </c>
+      <c r="G17"/>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1953,6 +1990,7 @@
       <c r="F18">
         <v>0</v>
       </c>
+      <c r="G18"/>
       <c r="K18" t="s">
         <v>41</v>
       </c>
@@ -1979,6 +2017,7 @@
       <c r="F19">
         <v>0</v>
       </c>
+      <c r="G19"/>
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -1999,6 +2038,7 @@
       <c r="F20">
         <v>0</v>
       </c>
+      <c r="G20"/>
       <c r="I20" t="s">
         <v>44</v>
       </c>
@@ -2031,6 +2071,7 @@
       <c r="F21">
         <v>0</v>
       </c>
+      <c r="G21"/>
       <c r="I21" t="s">
         <v>46</v>
       </c>
@@ -2063,6 +2104,7 @@
       <c r="F22">
         <v>0</v>
       </c>
+      <c r="G22"/>
       <c r="K22" t="s">
         <v>47</v>
       </c>
@@ -2089,6 +2131,7 @@
       <c r="F23">
         <v>0</v>
       </c>
+      <c r="G23"/>
       <c r="I23" t="s">
         <v>50</v>
       </c>
@@ -2121,6 +2164,7 @@
       <c r="F24">
         <v>0</v>
       </c>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -2141,6 +2185,7 @@
       <c r="F25">
         <v>0</v>
       </c>
+      <c r="G25"/>
       <c r="K25" t="s">
         <v>53</v>
       </c>
@@ -2167,6 +2212,7 @@
       <c r="F26">
         <v>0</v>
       </c>
+      <c r="G26"/>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -2187,6 +2233,7 @@
       <c r="F27">
         <v>0</v>
       </c>
+      <c r="G27"/>
       <c r="I27" t="s">
         <v>58</v>
       </c>
@@ -2219,6 +2266,7 @@
       <c r="F28">
         <v>0</v>
       </c>
+      <c r="G28"/>
       <c r="I28" t="s">
         <v>59</v>
       </c>
@@ -2251,6 +2299,7 @@
       <c r="F29">
         <v>0</v>
       </c>
+      <c r="G29"/>
       <c r="I29" t="s">
         <v>58</v>
       </c>
@@ -2283,6 +2332,7 @@
       <c r="F30">
         <v>0</v>
       </c>
+      <c r="G30"/>
       <c r="I30" t="s">
         <v>59</v>
       </c>
@@ -2315,6 +2365,7 @@
       <c r="F31">
         <v>0</v>
       </c>
+      <c r="G31"/>
       <c r="I31" t="s">
         <v>61</v>
       </c>
@@ -2347,6 +2398,7 @@
       <c r="F32">
         <v>0</v>
       </c>
+      <c r="G32"/>
       <c r="I32" t="s">
         <v>58</v>
       </c>
@@ -2379,6 +2431,7 @@
       <c r="F33">
         <v>0</v>
       </c>
+      <c r="G33"/>
       <c r="I33" t="s">
         <v>58</v>
       </c>
@@ -2411,6 +2464,7 @@
       <c r="F34">
         <v>0</v>
       </c>
+      <c r="G34"/>
       <c r="I34" t="s">
         <v>58</v>
       </c>
@@ -2443,6 +2497,7 @@
       <c r="F35">
         <v>0</v>
       </c>
+      <c r="G35"/>
       <c r="I35" t="s">
         <v>58</v>
       </c>
@@ -2475,6 +2530,7 @@
       <c r="F36">
         <v>0</v>
       </c>
+      <c r="G36"/>
       <c r="I36" t="s">
         <v>58</v>
       </c>
@@ -2507,6 +2563,7 @@
       <c r="F37">
         <v>0</v>
       </c>
+      <c r="G37"/>
       <c r="I37" t="s">
         <v>67</v>
       </c>
@@ -2539,6 +2596,7 @@
       <c r="F38">
         <v>0</v>
       </c>
+      <c r="G38"/>
       <c r="I38" t="s">
         <v>68</v>
       </c>
@@ -2571,6 +2629,7 @@
       <c r="F39">
         <v>0</v>
       </c>
+      <c r="G39"/>
       <c r="I39" t="s">
         <v>69</v>
       </c>
@@ -2603,6 +2662,7 @@
       <c r="F40">
         <v>0</v>
       </c>
+      <c r="G40"/>
       <c r="I40" t="s">
         <v>71</v>
       </c>
@@ -2635,6 +2695,7 @@
       <c r="F41">
         <v>0</v>
       </c>
+      <c r="G41"/>
       <c r="I41" t="s">
         <v>72</v>
       </c>
@@ -2667,6 +2728,7 @@
       <c r="F42">
         <v>0</v>
       </c>
+      <c r="G42"/>
       <c r="K42" t="s">
         <v>73</v>
       </c>
@@ -2693,6 +2755,7 @@
       <c r="F43">
         <v>0</v>
       </c>
+      <c r="G43"/>
       <c r="K43" t="s">
         <v>75</v>
       </c>
@@ -2719,6 +2782,7 @@
       <c r="F44">
         <v>0</v>
       </c>
+      <c r="G44"/>
       <c r="I44" t="s">
         <v>77</v>
       </c>
@@ -2745,6 +2809,7 @@
       <c r="F45">
         <v>0</v>
       </c>
+      <c r="G45"/>
       <c r="K45" t="s">
         <v>78</v>
       </c>
@@ -2771,6 +2836,7 @@
       <c r="F46">
         <v>0</v>
       </c>
+      <c r="G46"/>
       <c r="K46" t="s">
         <v>80</v>
       </c>
@@ -2797,6 +2863,7 @@
       <c r="F47">
         <v>0</v>
       </c>
+      <c r="G47"/>
       <c r="K47" t="s">
         <v>82</v>
       </c>
@@ -2817,13 +2884,13 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="5" t="s">
         <v>85</v>
       </c>
       <c r="H48" t="s">
@@ -2861,6 +2928,7 @@
       <c r="F49">
         <v>0</v>
       </c>
+      <c r="G49"/>
       <c r="I49" t="s">
         <v>84</v>
       </c>
@@ -2887,13 +2955,13 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H50" t="s">
@@ -2931,6 +2999,7 @@
       <c r="F51">
         <v>0</v>
       </c>
+      <c r="G51"/>
       <c r="K51" t="s">
         <v>90</v>
       </c>
@@ -2957,6 +3026,7 @@
       <c r="F52">
         <v>0</v>
       </c>
+      <c r="G52"/>
       <c r="K52" t="s">
         <v>91</v>
       </c>
@@ -2983,6 +3053,7 @@
       <c r="F53">
         <v>96</v>
       </c>
+      <c r="G53"/>
     </row>
     <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -3003,6 +3074,7 @@
       <c r="F54">
         <v>18</v>
       </c>
+      <c r="G54"/>
       <c r="K54" t="s">
         <v>94</v>
       </c>
@@ -3029,6 +3101,7 @@
       <c r="F55">
         <v>62</v>
       </c>
+      <c r="G55"/>
     </row>
     <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
@@ -3049,6 +3122,7 @@
       <c r="F56">
         <v>168</v>
       </c>
+      <c r="G56"/>
     </row>
     <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
@@ -3069,6 +3143,7 @@
       <c r="F57">
         <v>168</v>
       </c>
+      <c r="G57"/>
     </row>
     <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
@@ -3089,6 +3164,7 @@
       <c r="F58">
         <v>220</v>
       </c>
+      <c r="G58"/>
     </row>
     <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
@@ -3109,6 +3185,7 @@
       <c r="F59">
         <v>220</v>
       </c>
+      <c r="G59"/>
     </row>
     <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
@@ -3129,6 +3206,7 @@
       <c r="F60">
         <v>12</v>
       </c>
+      <c r="G60"/>
     </row>
     <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
@@ -3149,6 +3227,7 @@
       <c r="F61">
         <v>12</v>
       </c>
+      <c r="G61"/>
     </row>
     <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
@@ -3169,6 +3248,7 @@
       <c r="F62">
         <v>200</v>
       </c>
+      <c r="G62"/>
     </row>
     <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
@@ -3189,6 +3269,7 @@
       <c r="F63">
         <v>200</v>
       </c>
+      <c r="G63"/>
     </row>
     <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
@@ -3209,6 +3290,7 @@
       <c r="F64">
         <v>100</v>
       </c>
+      <c r="G64"/>
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
@@ -3229,6 +3311,7 @@
       <c r="F65">
         <v>100</v>
       </c>
+      <c r="G65"/>
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
@@ -3249,6 +3332,7 @@
       <c r="F66">
         <v>23</v>
       </c>
+      <c r="G66"/>
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
@@ -3269,6 +3353,7 @@
       <c r="F67">
         <v>35</v>
       </c>
+      <c r="G67"/>
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
@@ -3289,6 +3374,7 @@
       <c r="F68">
         <v>23</v>
       </c>
+      <c r="G68"/>
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
@@ -3309,6 +3395,7 @@
       <c r="F69">
         <v>35</v>
       </c>
+      <c r="G69"/>
     </row>
     <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
@@ -3329,6 +3416,7 @@
       <c r="F70">
         <v>23</v>
       </c>
+      <c r="G70"/>
     </row>
     <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
@@ -3349,6 +3437,7 @@
       <c r="F71">
         <v>35</v>
       </c>
+      <c r="G71"/>
     </row>
     <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
@@ -3369,6 +3458,7 @@
       <c r="F72">
         <v>23</v>
       </c>
+      <c r="G72"/>
     </row>
     <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
@@ -3389,6 +3479,7 @@
       <c r="F73">
         <v>35</v>
       </c>
+      <c r="G73"/>
     </row>
     <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
@@ -3409,6 +3500,7 @@
       <c r="F74">
         <v>23</v>
       </c>
+      <c r="G74"/>
     </row>
     <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
@@ -3429,6 +3521,7 @@
       <c r="F75">
         <v>35</v>
       </c>
+      <c r="G75"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -3443,13 +3536,13 @@
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F76">
         <v>100</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="5" t="s">
         <v>123</v>
       </c>
       <c r="H76" t="s">
@@ -3475,13 +3568,13 @@
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="5" t="s">
         <v>126</v>
       </c>
       <c r="H77" t="s">
@@ -3507,13 +3600,13 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="5" t="s">
         <v>128</v>
       </c>
       <c r="H78" t="s">
@@ -3539,13 +3632,13 @@
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="5" t="s">
         <v>130</v>
       </c>
       <c r="H79" t="s">
@@ -3571,13 +3664,13 @@
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="5" t="s">
         <v>132</v>
       </c>
       <c r="H80" t="s">
@@ -3603,13 +3696,13 @@
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="3" t="s">
         <v>134</v>
       </c>
       <c r="F81">
         <v>12</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="5" t="s">
         <v>135</v>
       </c>
       <c r="H81" t="s">
@@ -3635,13 +3728,13 @@
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="3" t="s">
         <v>134</v>
       </c>
       <c r="F82">
         <v>12</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="5" t="s">
         <v>137</v>
       </c>
       <c r="H82" t="s">
@@ -3667,13 +3760,13 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F83">
         <v>220</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="5" t="s">
         <v>140</v>
       </c>
       <c r="H83" t="s">
@@ -3699,13 +3792,13 @@
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F84">
         <v>220</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="5" t="s">
         <v>142</v>
       </c>
       <c r="H84" t="s">
@@ -3731,13 +3824,13 @@
       <c r="D85">
         <v>1</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F85">
         <v>220</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="5" t="s">
         <v>144</v>
       </c>
       <c r="H85" t="s">
@@ -3763,13 +3856,13 @@
       <c r="D86">
         <v>1</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F86">
         <v>220</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="5" t="s">
         <v>146</v>
       </c>
       <c r="H86" t="s">
@@ -3795,13 +3888,13 @@
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F87">
         <v>220</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="5" t="s">
         <v>148</v>
       </c>
       <c r="H87" t="s">
@@ -3827,13 +3920,13 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F88">
         <v>220</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="5" t="s">
         <v>150</v>
       </c>
       <c r="H88" t="s">
@@ -3859,13 +3952,13 @@
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="3" t="s">
         <v>152</v>
       </c>
       <c r="F89">
         <v>96</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="5" t="s">
         <v>153</v>
       </c>
       <c r="H89" t="s">
@@ -3891,13 +3984,13 @@
       <c r="D90">
         <v>1</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="3" t="s">
         <v>152</v>
       </c>
       <c r="F90">
         <v>96</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="5" t="s">
         <v>155</v>
       </c>
       <c r="H90" t="s">
@@ -3923,13 +4016,13 @@
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="3" t="s">
         <v>157</v>
       </c>
       <c r="F91">
         <v>62</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="5" t="s">
         <v>158</v>
       </c>
       <c r="H91" t="s">
@@ -3955,13 +4048,13 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="3" t="s">
         <v>157</v>
       </c>
       <c r="F92">
         <v>62</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="5" t="s">
         <v>160</v>
       </c>
       <c r="H92" t="s">
@@ -3987,13 +4080,13 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H93" t="s">
@@ -4019,13 +4112,13 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="5" t="s">
         <v>165</v>
       </c>
       <c r="H94" t="s">
@@ -4045,7 +4138,7 @@
       <c r="B95" t="s">
         <v>166</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="5" t="s">
         <v>166</v>
       </c>
       <c r="H95" t="s">
@@ -4059,7 +4152,7 @@
       <c r="B96" t="s">
         <v>168</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H96" t="s">
@@ -4073,7 +4166,7 @@
       <c r="B97" t="s">
         <v>170</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="5" t="s">
         <v>170</v>
       </c>
       <c r="H97" t="s">
@@ -4090,10 +4183,10 @@
       <c r="D98">
         <v>1</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="5" t="s">
         <v>171</v>
       </c>
       <c r="H98" t="s">
@@ -4113,10 +4206,10 @@
       <c r="D99">
         <v>5</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="5" t="s">
         <v>173</v>
       </c>
       <c r="H99" t="s">
@@ -4136,10 +4229,10 @@
       <c r="D100">
         <v>1.5</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H100" t="s">
@@ -4156,7 +4249,7 @@
       <c r="B101" t="s">
         <v>176</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H101" t="s">
@@ -4173,7 +4266,7 @@
       <c r="B102" t="s">
         <v>178</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H102" t="s">
@@ -4188,10 +4281,10 @@
       <c r="D103">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="5" t="s">
         <v>180</v>
       </c>
       <c r="H103" t="s">
@@ -4206,10 +4299,10 @@
       <c r="D104">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="5" t="s">
         <v>180</v>
       </c>
       <c r="H104" t="s">
@@ -4224,10 +4317,10 @@
       <c r="D105">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="5" t="s">
         <v>180</v>
       </c>
       <c r="H105" t="s">
@@ -4247,10 +4340,10 @@
       <c r="D106">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="5" t="s">
         <v>180</v>
       </c>
       <c r="H106" t="s">
@@ -4270,10 +4363,10 @@
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="5" t="s">
         <v>182</v>
       </c>
       <c r="H107" t="s">
@@ -4288,10 +4381,10 @@
       <c r="D108">
         <v>1</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="5" t="s">
         <v>184</v>
       </c>
       <c r="H108" t="s">
@@ -4306,10 +4399,10 @@
       <c r="D109">
         <v>0.5</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="5" t="s">
         <v>184</v>
       </c>
       <c r="H109" t="s">
@@ -4329,10 +4422,10 @@
       <c r="D110">
         <v>0.5</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="5" t="s">
         <v>184</v>
       </c>
       <c r="H110" t="s">
@@ -4347,10 +4440,10 @@
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="5" t="s">
         <v>186</v>
       </c>
       <c r="H111" t="s">
@@ -4365,10 +4458,10 @@
       <c r="D112">
         <v>0.5</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="5" t="s">
         <v>186</v>
       </c>
       <c r="H112" t="s">
@@ -4388,10 +4481,10 @@
       <c r="D113">
         <v>0.5</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="5" t="s">
         <v>186</v>
       </c>
       <c r="H113" t="s">
@@ -4406,10 +4499,10 @@
       <c r="D114">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="5" t="s">
         <v>187</v>
       </c>
       <c r="H114" t="s">
@@ -4424,10 +4517,10 @@
       <c r="D115">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="5" t="s">
         <v>187</v>
       </c>
       <c r="H115" t="s">
@@ -4442,10 +4535,10 @@
       <c r="D116">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="5" t="s">
         <v>187</v>
       </c>
       <c r="H116" t="s">
@@ -4465,10 +4558,10 @@
       <c r="D117">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="5" t="s">
         <v>187</v>
       </c>
       <c r="H117" t="s">
@@ -4488,10 +4581,10 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="5" t="s">
         <v>189</v>
       </c>
       <c r="H118" t="s">
@@ -4511,10 +4604,10 @@
       <c r="D119">
         <v>1</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="5" t="s">
         <v>191</v>
       </c>
       <c r="H119" t="s">
@@ -4534,10 +4627,10 @@
       <c r="D120">
         <v>1</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="5" t="s">
         <v>193</v>
       </c>
       <c r="H120" t="s">
@@ -4557,10 +4650,10 @@
       <c r="D121">
         <v>4</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="5" t="s">
         <v>195</v>
       </c>
       <c r="H121" t="s">
@@ -4580,10 +4673,10 @@
       <c r="D122">
         <v>1</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="5" t="s">
         <v>197</v>
       </c>
       <c r="H122" t="s">
@@ -4600,6 +4693,7 @@
       <c r="E123" t="s">
         <v>198</v>
       </c>
+      <c r="G123"/>
       <c r="I123" t="s">
         <v>198</v>
       </c>
@@ -4614,6 +4708,7 @@
       <c r="E124" t="s">
         <v>199</v>
       </c>
+      <c r="G124"/>
       <c r="I124" t="s">
         <v>199</v>
       </c>
@@ -4628,6 +4723,7 @@
       <c r="E125" t="s">
         <v>200</v>
       </c>
+      <c r="G125"/>
       <c r="I125" t="s">
         <v>200</v>
       </c>
@@ -4642,6 +4738,7 @@
       <c r="E126" t="s">
         <v>201</v>
       </c>
+      <c r="G126"/>
       <c r="I126" t="s">
         <v>201</v>
       </c>
@@ -4656,6 +4753,7 @@
       <c r="E127" t="s">
         <v>202</v>
       </c>
+      <c r="G127"/>
       <c r="I127" t="s">
         <v>202</v>
       </c>
@@ -4670,6 +4768,7 @@
       <c r="E128" t="s">
         <v>203</v>
       </c>
+      <c r="G128"/>
       <c r="I128" t="s">
         <v>203</v>
       </c>
@@ -4684,6 +4783,7 @@
       <c r="E129" t="s">
         <v>204</v>
       </c>
+      <c r="G129"/>
       <c r="I129" t="s">
         <v>204</v>
       </c>
@@ -4698,6 +4798,7 @@
       <c r="E130" t="s">
         <v>205</v>
       </c>
+      <c r="G130"/>
       <c r="I130" t="s">
         <v>205</v>
       </c>
@@ -4712,6 +4813,7 @@
       <c r="E131" t="s">
         <v>206</v>
       </c>
+      <c r="G131"/>
       <c r="I131" t="s">
         <v>206</v>
       </c>
@@ -4726,6 +4828,7 @@
       <c r="E132" t="s">
         <v>207</v>
       </c>
+      <c r="G132"/>
       <c r="I132" t="s">
         <v>207</v>
       </c>
@@ -4740,6 +4843,7 @@
       <c r="E133" t="s">
         <v>208</v>
       </c>
+      <c r="G133"/>
       <c r="I133" t="s">
         <v>208</v>
       </c>
@@ -4754,6 +4858,7 @@
       <c r="E134" t="s">
         <v>209</v>
       </c>
+      <c r="G134"/>
       <c r="I134" t="s">
         <v>209</v>
       </c>
@@ -4768,6 +4873,7 @@
       <c r="E135" t="s">
         <v>210</v>
       </c>
+      <c r="G135"/>
       <c r="I135" t="s">
         <v>210</v>
       </c>
@@ -4782,6 +4888,7 @@
       <c r="E136" t="s">
         <v>211</v>
       </c>
+      <c r="G136"/>
       <c r="I136" t="s">
         <v>211</v>
       </c>
@@ -4796,6 +4903,7 @@
       <c r="E137" t="s">
         <v>212</v>
       </c>
+      <c r="G137"/>
       <c r="I137" t="s">
         <v>212</v>
       </c>
@@ -4810,6 +4918,7 @@
       <c r="E138" t="s">
         <v>213</v>
       </c>
+      <c r="G138"/>
       <c r="I138" t="s">
         <v>213</v>
       </c>
@@ -4824,6 +4933,7 @@
       <c r="E139" t="s">
         <v>214</v>
       </c>
+      <c r="G139"/>
       <c r="I139" t="s">
         <v>214</v>
       </c>
@@ -4838,6 +4948,7 @@
       <c r="E140" t="s">
         <v>215</v>
       </c>
+      <c r="G140"/>
       <c r="I140" t="s">
         <v>215</v>
       </c>
@@ -4852,6 +4963,7 @@
       <c r="E141" t="s">
         <v>216</v>
       </c>
+      <c r="G141"/>
       <c r="I141" t="s">
         <v>216</v>
       </c>
@@ -4866,6 +4978,7 @@
       <c r="E142" t="s">
         <v>217</v>
       </c>
+      <c r="G142"/>
       <c r="I142" t="s">
         <v>217</v>
       </c>
@@ -4880,6 +4993,7 @@
       <c r="E143" t="s">
         <v>218</v>
       </c>
+      <c r="G143"/>
       <c r="I143" t="s">
         <v>218</v>
       </c>
@@ -4894,6 +5008,7 @@
       <c r="E144" t="s">
         <v>219</v>
       </c>
+      <c r="G144"/>
       <c r="I144" t="s">
         <v>219</v>
       </c>
@@ -4908,6 +5023,7 @@
       <c r="E145" t="s">
         <v>220</v>
       </c>
+      <c r="G145"/>
       <c r="I145" t="s">
         <v>220</v>
       </c>
@@ -4922,6 +5038,7 @@
       <c r="E146" t="s">
         <v>221</v>
       </c>
+      <c r="G146"/>
       <c r="I146" t="s">
         <v>221</v>
       </c>
@@ -4936,6 +5053,7 @@
       <c r="E147" t="s">
         <v>222</v>
       </c>
+      <c r="G147"/>
       <c r="I147" t="s">
         <v>222</v>
       </c>
@@ -4950,6 +5068,7 @@
       <c r="E148" t="s">
         <v>223</v>
       </c>
+      <c r="G148"/>
       <c r="I148" t="s">
         <v>223</v>
       </c>
@@ -4964,6 +5083,7 @@
       <c r="E149" t="s">
         <v>224</v>
       </c>
+      <c r="G149"/>
       <c r="I149" t="s">
         <v>224</v>
       </c>
@@ -4978,6 +5098,7 @@
       <c r="E150" t="s">
         <v>225</v>
       </c>
+      <c r="G150"/>
       <c r="I150" t="s">
         <v>225</v>
       </c>
@@ -4992,6 +5113,7 @@
       <c r="E151" t="s">
         <v>226</v>
       </c>
+      <c r="G151"/>
       <c r="I151" t="s">
         <v>226</v>
       </c>
@@ -5006,6 +5128,7 @@
       <c r="E152" t="s">
         <v>227</v>
       </c>
+      <c r="G152"/>
       <c r="I152" t="s">
         <v>227</v>
       </c>
@@ -5020,6 +5143,7 @@
       <c r="E153" t="s">
         <v>228</v>
       </c>
+      <c r="G153"/>
       <c r="I153" t="s">
         <v>228</v>
       </c>
@@ -5034,6 +5158,7 @@
       <c r="E154" t="s">
         <v>229</v>
       </c>
+      <c r="G154"/>
       <c r="I154" t="s">
         <v>229</v>
       </c>
@@ -5048,6 +5173,7 @@
       <c r="E155" t="s">
         <v>230</v>
       </c>
+      <c r="G155"/>
       <c r="I155" t="s">
         <v>230</v>
       </c>
@@ -5062,6 +5188,7 @@
       <c r="E156" t="s">
         <v>231</v>
       </c>
+      <c r="G156"/>
       <c r="I156" t="s">
         <v>231</v>
       </c>
@@ -5076,6 +5203,7 @@
       <c r="E157" t="s">
         <v>232</v>
       </c>
+      <c r="G157"/>
       <c r="I157" t="s">
         <v>232</v>
       </c>
@@ -5090,6 +5218,7 @@
       <c r="E158" t="s">
         <v>233</v>
       </c>
+      <c r="G158"/>
       <c r="I158" t="s">
         <v>233</v>
       </c>
@@ -5104,6 +5233,7 @@
       <c r="E159" t="s">
         <v>234</v>
       </c>
+      <c r="G159"/>
       <c r="I159" t="s">
         <v>234</v>
       </c>
@@ -5118,6 +5248,7 @@
       <c r="E160" t="s">
         <v>235</v>
       </c>
+      <c r="G160"/>
       <c r="I160" t="s">
         <v>235</v>
       </c>
@@ -5132,6 +5263,7 @@
       <c r="E161" t="s">
         <v>236</v>
       </c>
+      <c r="G161"/>
       <c r="I161" t="s">
         <v>236</v>
       </c>
@@ -5146,6 +5278,7 @@
       <c r="E162" t="s">
         <v>237</v>
       </c>
+      <c r="G162"/>
       <c r="I162" t="s">
         <v>237</v>
       </c>
@@ -5160,6 +5293,7 @@
       <c r="E163" t="s">
         <v>238</v>
       </c>
+      <c r="G163"/>
       <c r="I163" t="s">
         <v>238</v>
       </c>
@@ -5174,6 +5308,7 @@
       <c r="E164" t="s">
         <v>239</v>
       </c>
+      <c r="G164"/>
       <c r="I164" t="s">
         <v>239</v>
       </c>
@@ -5188,6 +5323,7 @@
       <c r="E165" t="s">
         <v>240</v>
       </c>
+      <c r="G165"/>
       <c r="I165" t="s">
         <v>240</v>
       </c>
@@ -5202,6 +5338,7 @@
       <c r="E166" t="s">
         <v>241</v>
       </c>
+      <c r="G166"/>
       <c r="I166" t="s">
         <v>241</v>
       </c>
@@ -5216,6 +5353,7 @@
       <c r="E167" t="s">
         <v>242</v>
       </c>
+      <c r="G167"/>
       <c r="I167" t="s">
         <v>242</v>
       </c>
@@ -5230,6 +5368,7 @@
       <c r="E168" t="s">
         <v>243</v>
       </c>
+      <c r="G168"/>
       <c r="I168" t="s">
         <v>243</v>
       </c>
@@ -5244,6 +5383,7 @@
       <c r="E169" t="s">
         <v>244</v>
       </c>
+      <c r="G169"/>
       <c r="I169" t="s">
         <v>244</v>
       </c>
@@ -5258,6 +5398,7 @@
       <c r="E170" t="s">
         <v>245</v>
       </c>
+      <c r="G170"/>
       <c r="I170" t="s">
         <v>245</v>
       </c>
@@ -5272,6 +5413,7 @@
       <c r="E171" t="s">
         <v>246</v>
       </c>
+      <c r="G171"/>
       <c r="I171" t="s">
         <v>246</v>
       </c>
@@ -5286,6 +5428,7 @@
       <c r="E172" t="s">
         <v>247</v>
       </c>
+      <c r="G172"/>
       <c r="I172" t="s">
         <v>247</v>
       </c>
@@ -5300,6 +5443,7 @@
       <c r="E173" t="s">
         <v>248</v>
       </c>
+      <c r="G173"/>
       <c r="I173" t="s">
         <v>248</v>
       </c>
@@ -5314,6 +5458,7 @@
       <c r="E174" t="s">
         <v>249</v>
       </c>
+      <c r="G174"/>
       <c r="I174" t="s">
         <v>249</v>
       </c>
@@ -5328,6 +5473,7 @@
       <c r="E175" t="s">
         <v>250</v>
       </c>
+      <c r="G175"/>
       <c r="I175" t="s">
         <v>250</v>
       </c>
@@ -5342,6 +5488,7 @@
       <c r="E176" t="s">
         <v>251</v>
       </c>
+      <c r="G176"/>
       <c r="I176" t="s">
         <v>251</v>
       </c>
@@ -5356,6 +5503,7 @@
       <c r="E177" t="s">
         <v>252</v>
       </c>
+      <c r="G177"/>
       <c r="I177" t="s">
         <v>252</v>
       </c>
@@ -5370,6 +5518,7 @@
       <c r="E178" t="s">
         <v>253</v>
       </c>
+      <c r="G178"/>
       <c r="I178" t="s">
         <v>253</v>
       </c>
@@ -5384,6 +5533,7 @@
       <c r="E179" t="s">
         <v>254</v>
       </c>
+      <c r="G179"/>
       <c r="I179" t="s">
         <v>254</v>
       </c>
@@ -5398,6 +5548,7 @@
       <c r="E180" t="s">
         <v>255</v>
       </c>
+      <c r="G180"/>
       <c r="I180" t="s">
         <v>255</v>
       </c>
@@ -5412,6 +5563,7 @@
       <c r="E181" t="s">
         <v>256</v>
       </c>
+      <c r="G181"/>
       <c r="I181" t="s">
         <v>256</v>
       </c>
@@ -5426,6 +5578,7 @@
       <c r="E182" t="s">
         <v>257</v>
       </c>
+      <c r="G182"/>
       <c r="I182" t="s">
         <v>257</v>
       </c>
@@ -5440,6 +5593,7 @@
       <c r="E183" t="s">
         <v>258</v>
       </c>
+      <c r="G183"/>
       <c r="I183" t="s">
         <v>258</v>
       </c>
@@ -5454,6 +5608,7 @@
       <c r="E184" t="s">
         <v>259</v>
       </c>
+      <c r="G184"/>
       <c r="I184" t="s">
         <v>259</v>
       </c>
@@ -5468,6 +5623,7 @@
       <c r="E185" t="s">
         <v>260</v>
       </c>
+      <c r="G185"/>
       <c r="I185" t="s">
         <v>260</v>
       </c>
@@ -5482,6 +5638,7 @@
       <c r="E186" t="s">
         <v>261</v>
       </c>
+      <c r="G186"/>
       <c r="I186" t="s">
         <v>261</v>
       </c>
@@ -5496,6 +5653,7 @@
       <c r="E187" t="s">
         <v>262</v>
       </c>
+      <c r="G187"/>
       <c r="I187" t="s">
         <v>262</v>
       </c>
@@ -5510,6 +5668,7 @@
       <c r="E188" t="s">
         <v>263</v>
       </c>
+      <c r="G188"/>
       <c r="I188" t="s">
         <v>263</v>
       </c>
@@ -5524,6 +5683,7 @@
       <c r="E189" t="s">
         <v>264</v>
       </c>
+      <c r="G189"/>
       <c r="I189" t="s">
         <v>264</v>
       </c>
@@ -5538,6 +5698,7 @@
       <c r="E190" t="s">
         <v>265</v>
       </c>
+      <c r="G190"/>
       <c r="I190" t="s">
         <v>265</v>
       </c>
@@ -5552,6 +5713,7 @@
       <c r="E191" t="s">
         <v>266</v>
       </c>
+      <c r="G191"/>
       <c r="I191" t="s">
         <v>266</v>
       </c>
@@ -5566,6 +5728,8 @@
       <c r="B192" t="s">
         <v>268</v>
       </c>
+      <c r="E192"/>
+      <c r="G192"/>
       <c r="K192" t="s">
         <v>268</v>
       </c>
@@ -5580,6 +5744,8 @@
       <c r="B193" t="s">
         <v>269</v>
       </c>
+      <c r="E193"/>
+      <c r="G193"/>
       <c r="K193" t="s">
         <v>269</v>
       </c>
@@ -5594,6 +5760,8 @@
       <c r="B194" t="s">
         <v>69</v>
       </c>
+      <c r="E194"/>
+      <c r="G194"/>
       <c r="K194" t="s">
         <v>69</v>
       </c>
@@ -5608,6 +5776,8 @@
       <c r="B195" t="s">
         <v>270</v>
       </c>
+      <c r="E195"/>
+      <c r="G195"/>
       <c r="K195" t="s">
         <v>270</v>
       </c>
@@ -5622,6 +5792,8 @@
       <c r="B196" t="s">
         <v>271</v>
       </c>
+      <c r="E196"/>
+      <c r="G196"/>
       <c r="K196" t="s">
         <v>271</v>
       </c>
@@ -5636,6 +5808,8 @@
       <c r="B197" t="s">
         <v>272</v>
       </c>
+      <c r="E197"/>
+      <c r="G197"/>
       <c r="K197" t="s">
         <v>272</v>
       </c>
@@ -5650,6 +5824,8 @@
       <c r="B198" t="s">
         <v>273</v>
       </c>
+      <c r="E198"/>
+      <c r="G198"/>
       <c r="K198" t="s">
         <v>273</v>
       </c>
@@ -5664,6 +5840,8 @@
       <c r="B199" t="s">
         <v>274</v>
       </c>
+      <c r="E199"/>
+      <c r="G199"/>
       <c r="K199" t="s">
         <v>274</v>
       </c>
@@ -5678,6 +5856,8 @@
       <c r="B200" t="s">
         <v>208</v>
       </c>
+      <c r="E200"/>
+      <c r="G200"/>
       <c r="K200" t="s">
         <v>208</v>
       </c>
@@ -5692,6 +5872,8 @@
       <c r="B201" t="s">
         <v>275</v>
       </c>
+      <c r="E201"/>
+      <c r="G201"/>
       <c r="K201" t="s">
         <v>275</v>
       </c>
@@ -5706,6 +5888,8 @@
       <c r="B202" t="s">
         <v>276</v>
       </c>
+      <c r="E202"/>
+      <c r="G202"/>
       <c r="K202" t="s">
         <v>276</v>
       </c>
@@ -5720,6 +5904,8 @@
       <c r="B203" t="s">
         <v>277</v>
       </c>
+      <c r="E203"/>
+      <c r="G203"/>
       <c r="K203" t="s">
         <v>277</v>
       </c>
@@ -5734,6 +5920,8 @@
       <c r="B204" t="s">
         <v>278</v>
       </c>
+      <c r="E204"/>
+      <c r="G204"/>
       <c r="K204" t="s">
         <v>278</v>
       </c>
@@ -5748,6 +5936,8 @@
       <c r="B205" t="s">
         <v>279</v>
       </c>
+      <c r="E205"/>
+      <c r="G205"/>
       <c r="K205" t="s">
         <v>279</v>
       </c>
@@ -5762,6 +5952,8 @@
       <c r="B206" t="s">
         <v>280</v>
       </c>
+      <c r="E206"/>
+      <c r="G206"/>
       <c r="K206" t="s">
         <v>280</v>
       </c>
@@ -5776,6 +5968,8 @@
       <c r="B207" t="s">
         <v>281</v>
       </c>
+      <c r="E207"/>
+      <c r="G207"/>
       <c r="K207" t="s">
         <v>281</v>
       </c>
@@ -5790,6 +5984,8 @@
       <c r="B208" t="s">
         <v>282</v>
       </c>
+      <c r="E208"/>
+      <c r="G208"/>
       <c r="K208" t="s">
         <v>282</v>
       </c>
@@ -5804,6 +6000,8 @@
       <c r="B209" t="s">
         <v>283</v>
       </c>
+      <c r="E209"/>
+      <c r="G209"/>
       <c r="K209" t="s">
         <v>283</v>
       </c>
@@ -5818,6 +6016,8 @@
       <c r="B210" t="s">
         <v>284</v>
       </c>
+      <c r="E210"/>
+      <c r="G210"/>
       <c r="K210" t="s">
         <v>284</v>
       </c>
@@ -5832,6 +6032,8 @@
       <c r="B211" t="s">
         <v>285</v>
       </c>
+      <c r="E211"/>
+      <c r="G211"/>
       <c r="K211" t="s">
         <v>285</v>
       </c>
@@ -5846,6 +6048,8 @@
       <c r="B212" t="s">
         <v>19</v>
       </c>
+      <c r="E212"/>
+      <c r="G212"/>
       <c r="K212" t="s">
         <v>19</v>
       </c>
@@ -5860,6 +6064,8 @@
       <c r="B213" t="s">
         <v>286</v>
       </c>
+      <c r="E213"/>
+      <c r="G213"/>
       <c r="K213" t="s">
         <v>286</v>
       </c>
@@ -5874,6 +6080,8 @@
       <c r="B214" t="s">
         <v>287</v>
       </c>
+      <c r="E214"/>
+      <c r="G214"/>
       <c r="K214" t="s">
         <v>287</v>
       </c>
@@ -5888,6 +6096,8 @@
       <c r="B215" t="s">
         <v>288</v>
       </c>
+      <c r="E215"/>
+      <c r="G215"/>
       <c r="K215" t="s">
         <v>288</v>
       </c>
@@ -5902,6 +6112,8 @@
       <c r="B216" t="s">
         <v>290</v>
       </c>
+      <c r="E216"/>
+      <c r="G216"/>
       <c r="K216" t="s">
         <v>290</v>
       </c>
@@ -5916,6 +6128,8 @@
       <c r="B217" t="s">
         <v>291</v>
       </c>
+      <c r="E217"/>
+      <c r="G217"/>
       <c r="K217" t="s">
         <v>291</v>
       </c>
@@ -5930,6 +6144,8 @@
       <c r="B218" t="s">
         <v>292</v>
       </c>
+      <c r="E218"/>
+      <c r="G218"/>
       <c r="K218" t="s">
         <v>292</v>
       </c>
@@ -5944,6 +6160,8 @@
       <c r="B219" t="s">
         <v>294</v>
       </c>
+      <c r="E219"/>
+      <c r="G219"/>
       <c r="K219" t="s">
         <v>294</v>
       </c>
@@ -5958,6 +6176,8 @@
       <c r="B220" t="s">
         <v>295</v>
       </c>
+      <c r="E220"/>
+      <c r="G220"/>
       <c r="K220" t="s">
         <v>295</v>
       </c>
@@ -5972,6 +6192,8 @@
       <c r="B221" t="s">
         <v>297</v>
       </c>
+      <c r="E221"/>
+      <c r="G221"/>
       <c r="K221" t="s">
         <v>297</v>
       </c>
@@ -5986,6 +6208,8 @@
       <c r="B222" t="s">
         <v>298</v>
       </c>
+      <c r="E222"/>
+      <c r="G222"/>
       <c r="K222" t="s">
         <v>298</v>
       </c>
@@ -6000,6 +6224,8 @@
       <c r="B223" t="s">
         <v>300</v>
       </c>
+      <c r="E223"/>
+      <c r="G223"/>
       <c r="K223" t="s">
         <v>300</v>
       </c>
@@ -6014,6 +6240,8 @@
       <c r="B224" t="s">
         <v>301</v>
       </c>
+      <c r="E224"/>
+      <c r="G224"/>
       <c r="K224" t="s">
         <v>301</v>
       </c>
@@ -6028,6 +6256,8 @@
       <c r="B225" t="s">
         <v>303</v>
       </c>
+      <c r="E225"/>
+      <c r="G225"/>
       <c r="K225" t="s">
         <v>303</v>
       </c>
@@ -6042,6 +6272,8 @@
       <c r="B226" t="s">
         <v>304</v>
       </c>
+      <c r="E226"/>
+      <c r="G226"/>
       <c r="K226" t="s">
         <v>304</v>
       </c>
@@ -6056,6 +6288,8 @@
       <c r="B227" t="s">
         <v>305</v>
       </c>
+      <c r="E227"/>
+      <c r="G227"/>
       <c r="K227" t="s">
         <v>305</v>
       </c>
@@ -6070,6 +6304,8 @@
       <c r="B228" t="s">
         <v>307</v>
       </c>
+      <c r="E228"/>
+      <c r="G228"/>
       <c r="K228" t="s">
         <v>307</v>
       </c>
@@ -6084,6 +6320,8 @@
       <c r="B229" t="s">
         <v>308</v>
       </c>
+      <c r="E229"/>
+      <c r="G229"/>
       <c r="K229" t="s">
         <v>308</v>
       </c>
@@ -6098,6 +6336,8 @@
       <c r="B230" t="s">
         <v>309</v>
       </c>
+      <c r="E230"/>
+      <c r="G230"/>
       <c r="K230" t="s">
         <v>309</v>
       </c>
@@ -6112,6 +6352,8 @@
       <c r="B231" t="s">
         <v>310</v>
       </c>
+      <c r="E231"/>
+      <c r="G231"/>
       <c r="K231" t="s">
         <v>310</v>
       </c>
@@ -6126,6 +6368,8 @@
       <c r="B232" t="s">
         <v>311</v>
       </c>
+      <c r="E232"/>
+      <c r="G232"/>
       <c r="K232" t="s">
         <v>311</v>
       </c>
@@ -6140,6 +6384,8 @@
       <c r="B233" t="s">
         <v>312</v>
       </c>
+      <c r="E233"/>
+      <c r="G233"/>
       <c r="K233" t="s">
         <v>312</v>
       </c>
@@ -6154,6 +6400,8 @@
       <c r="B234" t="s">
         <v>314</v>
       </c>
+      <c r="E234"/>
+      <c r="G234"/>
       <c r="K234" t="s">
         <v>314</v>
       </c>
@@ -6168,6 +6416,8 @@
       <c r="B235" t="s">
         <v>316</v>
       </c>
+      <c r="E235"/>
+      <c r="G235"/>
       <c r="K235" t="s">
         <v>316</v>
       </c>
@@ -6182,6 +6432,8 @@
       <c r="B236" t="s">
         <v>317</v>
       </c>
+      <c r="E236"/>
+      <c r="G236"/>
       <c r="K236" t="s">
         <v>317</v>
       </c>
@@ -6196,6 +6448,8 @@
       <c r="B237" t="s">
         <v>319</v>
       </c>
+      <c r="E237"/>
+      <c r="G237"/>
       <c r="K237" t="s">
         <v>319</v>
       </c>
@@ -6210,6 +6464,8 @@
       <c r="B238" t="s">
         <v>321</v>
       </c>
+      <c r="E238"/>
+      <c r="G238"/>
       <c r="K238" t="s">
         <v>321</v>
       </c>
@@ -6224,6 +6480,8 @@
       <c r="B239" t="s">
         <v>322</v>
       </c>
+      <c r="E239"/>
+      <c r="G239"/>
       <c r="K239" t="s">
         <v>322</v>
       </c>
@@ -6238,6 +6496,8 @@
       <c r="B240" t="s">
         <v>323</v>
       </c>
+      <c r="E240"/>
+      <c r="G240"/>
       <c r="K240" t="s">
         <v>323</v>
       </c>
@@ -6252,6 +6512,8 @@
       <c r="B241" t="s">
         <v>324</v>
       </c>
+      <c r="E241"/>
+      <c r="G241"/>
       <c r="K241" t="s">
         <v>324</v>
       </c>
@@ -6266,6 +6528,8 @@
       <c r="B242" t="s">
         <v>326</v>
       </c>
+      <c r="E242"/>
+      <c r="G242"/>
       <c r="K242" t="s">
         <v>326</v>
       </c>
@@ -6280,6 +6544,8 @@
       <c r="B243" t="s">
         <v>327</v>
       </c>
+      <c r="E243"/>
+      <c r="G243"/>
       <c r="K243" t="s">
         <v>327</v>
       </c>
@@ -6294,6 +6560,8 @@
       <c r="B244" t="s">
         <v>328</v>
       </c>
+      <c r="E244"/>
+      <c r="G244"/>
       <c r="K244" t="s">
         <v>328</v>
       </c>
@@ -6308,6 +6576,8 @@
       <c r="B245" t="s">
         <v>329</v>
       </c>
+      <c r="E245"/>
+      <c r="G245"/>
       <c r="K245" t="s">
         <v>329</v>
       </c>
@@ -6322,6 +6592,8 @@
       <c r="B246" t="s">
         <v>330</v>
       </c>
+      <c r="E246"/>
+      <c r="G246"/>
       <c r="K246" t="s">
         <v>330</v>
       </c>
@@ -6336,6 +6608,8 @@
       <c r="B247" t="s">
         <v>331</v>
       </c>
+      <c r="E247"/>
+      <c r="G247"/>
       <c r="K247" t="s">
         <v>331</v>
       </c>
@@ -6350,6 +6624,8 @@
       <c r="B248" t="s">
         <v>332</v>
       </c>
+      <c r="E248"/>
+      <c r="G248"/>
       <c r="K248" t="s">
         <v>332</v>
       </c>
@@ -6364,6 +6640,8 @@
       <c r="B249" t="s">
         <v>333</v>
       </c>
+      <c r="E249"/>
+      <c r="G249"/>
       <c r="K249" t="s">
         <v>333</v>
       </c>
@@ -6378,6 +6656,8 @@
       <c r="B250" t="s">
         <v>334</v>
       </c>
+      <c r="E250"/>
+      <c r="G250"/>
       <c r="K250" t="s">
         <v>334</v>
       </c>
@@ -6392,6 +6672,8 @@
       <c r="B251" t="s">
         <v>335</v>
       </c>
+      <c r="E251"/>
+      <c r="G251"/>
       <c r="K251" t="s">
         <v>335</v>
       </c>
@@ -6406,6 +6688,8 @@
       <c r="B252" t="s">
         <v>336</v>
       </c>
+      <c r="E252"/>
+      <c r="G252"/>
       <c r="K252" t="s">
         <v>336</v>
       </c>
@@ -6420,6 +6704,8 @@
       <c r="B253" t="s">
         <v>337</v>
       </c>
+      <c r="E253"/>
+      <c r="G253"/>
       <c r="K253" t="s">
         <v>337</v>
       </c>
@@ -6434,6 +6720,8 @@
       <c r="B254" t="s">
         <v>338</v>
       </c>
+      <c r="E254"/>
+      <c r="G254"/>
       <c r="K254" t="s">
         <v>338</v>
       </c>
@@ -6448,6 +6736,8 @@
       <c r="B255" t="s">
         <v>339</v>
       </c>
+      <c r="E255"/>
+      <c r="G255"/>
       <c r="K255" t="s">
         <v>339</v>
       </c>
@@ -6462,6 +6752,8 @@
       <c r="B256" t="s">
         <v>340</v>
       </c>
+      <c r="E256"/>
+      <c r="G256"/>
       <c r="K256" t="s">
         <v>340</v>
       </c>
@@ -6476,6 +6768,8 @@
       <c r="B257" t="s">
         <v>341</v>
       </c>
+      <c r="E257"/>
+      <c r="G257"/>
       <c r="K257" t="s">
         <v>341</v>
       </c>
@@ -6490,6 +6784,8 @@
       <c r="B258" t="s">
         <v>342</v>
       </c>
+      <c r="E258"/>
+      <c r="G258"/>
       <c r="K258" t="s">
         <v>342</v>
       </c>
@@ -6504,6 +6800,8 @@
       <c r="B259" t="s">
         <v>343</v>
       </c>
+      <c r="E259"/>
+      <c r="G259"/>
       <c r="K259" t="s">
         <v>343</v>
       </c>
@@ -6518,6 +6816,8 @@
       <c r="B260" t="s">
         <v>345</v>
       </c>
+      <c r="E260"/>
+      <c r="G260"/>
       <c r="K260" t="s">
         <v>345</v>
       </c>
